--- a/2015/201512/10_DOCUMENT/Q&A.xlsx
+++ b/2015/201512/10_DOCUMENT/Q&A.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PROJECT\SVN_Daisuthuc\30_Q&amp;A\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16965" windowHeight="7020" tabRatio="333"/>
   </bookViews>
@@ -15,8 +10,8 @@
     <sheet name="QA" sheetId="9" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -130,7 +125,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="yyyy/mm/dd;@"/>
@@ -703,18 +698,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12.75"/>
